--- a/Report, presentation and related stuff/Experiment Data 2.xlsx
+++ b/Report, presentation and related stuff/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Report, presentation and related stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -175,6 +175,75 @@
   <si>
     <t>infinite</t>
   </si>
+  <si>
+    <t>Defining properties</t>
+  </si>
+  <si>
+    <t>A, B, C + 1 similar (inf)</t>
+  </si>
+  <si>
+    <t>A, B, C + 2 similar (inf)</t>
+  </si>
+  <si>
+    <t>A, B, C + 3 similar (inf)</t>
+  </si>
+  <si>
+    <t>Small packages (inf)</t>
+  </si>
+  <si>
+    <t>Big packages (inf)</t>
+  </si>
+  <si>
+    <t>Cubes (inf)</t>
+  </si>
+  <si>
+    <t>Long packages (inf)</t>
+  </si>
+  <si>
+    <t>Flat packages (inf)</t>
+  </si>
+  <si>
+    <t>A, B, C + 1 similar (15)</t>
+  </si>
+  <si>
+    <t>A, B, C + 2 similar (15)</t>
+  </si>
+  <si>
+    <t>A, B, C + 3 similar (10)</t>
+  </si>
+  <si>
+    <t>1x1x1 (330), 0.5x1x1.5 (220), 1x1x1 (165)</t>
+  </si>
+  <si>
+    <t>2x3x3 (10), 2x2.5x3 (11), 2.5x2.5x2.5 (11)</t>
+  </si>
+  <si>
+    <t>2.5x0.5x0.5 (264), 3x1x1 (55), 4x1x0.5 (83)</t>
+  </si>
+  <si>
+    <t>1x1x1 (165), 1.5x1.5x1.5 (50), 2x2x2 (21)</t>
+  </si>
+  <si>
+    <t>2x2.5x0.5 (66), 1.5x1.5x0.5 (147), 3x2x1 (28)</t>
+  </si>
+  <si>
+    <t>A (15), B (15), C (15), 2.x2.05 (15)</t>
+  </si>
+  <si>
+    <t>A (15), B (15), C (15), 2.x2.05 (15), 3x1x1 (15)</t>
+  </si>
+  <si>
+    <t>A (10), B (10), C (10), 2.x2.05 (10), 3x1x1 (10), 2.5x1x1.5 (10)</t>
+  </si>
+  <si>
+    <t>A (83), B (55), C (50), 2.x2.05 (83)</t>
+  </si>
+  <si>
+    <t>A (83), B (55), C (50), 2.x2.05 (83), 3x1x1 (55)</t>
+  </si>
+  <si>
+    <t>A (83), B (55), C (50), 2.x2.05 (83), 3x1x1 (55), 2.5x1x1.5 (44)</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -423,11 +492,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,18 +723,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,6 +883,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -811,8 +1111,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990374112"/>
-        <c:axId val="1990365952"/>
+        <c:axId val="2061721616"/>
+        <c:axId val="2061728688"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -917,11 +1217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990371936"/>
-        <c:axId val="1990378464"/>
+        <c:axId val="2061718896"/>
+        <c:axId val="2061729232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1990374112"/>
+        <c:axId val="2061721616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,6 +1267,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1033,12 +1334,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990365952"/>
+        <c:crossAx val="2061728688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990365952"/>
+        <c:axId val="2061728688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,6 +1385,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1150,12 +1452,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990374112"/>
+        <c:crossAx val="2061721616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990378464"/>
+        <c:axId val="2061729232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,6 +1489,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1252,12 +1555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990371936"/>
+        <c:crossAx val="2061718896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990371936"/>
+        <c:axId val="2061718896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990378464"/>
+        <c:crossAx val="2061729232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1281,6 +1584,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1390,6 +1694,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1605,8 +1910,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990372480"/>
-        <c:axId val="1990369216"/>
+        <c:axId val="2061725424"/>
+        <c:axId val="2061730320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1791,11 +2096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990363776"/>
-        <c:axId val="1990369760"/>
+        <c:axId val="2061728144"/>
+        <c:axId val="2061725968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1990372480"/>
+        <c:axId val="2061725424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,6 +2146,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1907,12 +2213,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990369216"/>
+        <c:crossAx val="2061730320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990369216"/>
+        <c:axId val="2061730320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,6 +2265,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2016,12 +2323,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990372480"/>
+        <c:crossAx val="2061725424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990369760"/>
+        <c:axId val="2061725968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,6 +2364,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2117,12 +2425,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990363776"/>
+        <c:crossAx val="2061728144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990363776"/>
+        <c:axId val="2061728144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990369760"/>
+        <c:crossAx val="2061725968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2146,6 +2454,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2260,6 +2569,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2561,8 +2871,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990366496"/>
-        <c:axId val="1990373024"/>
+        <c:axId val="2061726512"/>
+        <c:axId val="2061727056"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2833,11 +3143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1990376832"/>
-        <c:axId val="1990374656"/>
+        <c:axId val="2061729776"/>
+        <c:axId val="2061727600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1990366496"/>
+        <c:axId val="2061726512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,6 +3193,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2949,12 +3260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990373024"/>
+        <c:crossAx val="2061727056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990373024"/>
+        <c:axId val="2061727056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,6 +3312,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3058,12 +3370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990366496"/>
+        <c:crossAx val="2061726512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990374656"/>
+        <c:axId val="2061727600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,6 +3424,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3172,12 +3485,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990376832"/>
+        <c:crossAx val="2061729776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990376832"/>
+        <c:axId val="2061729776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +3500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990374656"/>
+        <c:crossAx val="2061727600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3201,6 +3514,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3310,6 +3624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3611,8 +3926,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934545280"/>
-        <c:axId val="1934546912"/>
+        <c:axId val="2056887520"/>
+        <c:axId val="2056890784"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3883,11 +4198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934547456"/>
-        <c:axId val="1934538208"/>
+        <c:axId val="2056881536"/>
+        <c:axId val="2056880992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1934545280"/>
+        <c:axId val="2056887520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,6 +4253,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4004,12 +4320,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934546912"/>
+        <c:crossAx val="2056890784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934546912"/>
+        <c:axId val="2056890784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,6 +4372,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4113,12 +4430,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934545280"/>
+        <c:crossAx val="2056887520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934538208"/>
+        <c:axId val="2056880992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,6 +4471,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4214,12 +4532,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934547456"/>
+        <c:crossAx val="2056881536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934547456"/>
+        <c:axId val="2056881536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,7 +4547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1934538208"/>
+        <c:crossAx val="2056880992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4243,6 +4561,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4357,6 +4676,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4640,8 +4960,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934550720"/>
-        <c:axId val="1934536576"/>
+        <c:axId val="2056886976"/>
+        <c:axId val="2056891328"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4894,11 +5214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934538752"/>
-        <c:axId val="1934535488"/>
+        <c:axId val="2056884800"/>
+        <c:axId val="2056877184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1934550720"/>
+        <c:axId val="2056886976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,6 +5269,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5015,12 +5336,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934536576"/>
+        <c:crossAx val="2056891328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934536576"/>
+        <c:axId val="2056891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,6 +5388,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5124,12 +5446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934550720"/>
+        <c:crossAx val="2056886976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934535488"/>
+        <c:axId val="2056877184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5166,12 +5488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934538752"/>
+        <c:crossAx val="2056884800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934538752"/>
+        <c:axId val="2056884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5181,7 +5503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1934535488"/>
+        <c:crossAx val="2056877184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5195,6 +5517,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5304,6 +5627,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5623,8 +5947,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934537120"/>
-        <c:axId val="1934539296"/>
+        <c:axId val="2056877728"/>
+        <c:axId val="2056888064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5913,11 +6237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934541472"/>
-        <c:axId val="1934539840"/>
+        <c:axId val="2056879360"/>
+        <c:axId val="2056878816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1934537120"/>
+        <c:axId val="2056877728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,6 +6287,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6029,12 +6354,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934539296"/>
+        <c:crossAx val="2056888064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934539296"/>
+        <c:axId val="2056888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,6 +6406,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6138,12 +6464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934537120"/>
+        <c:crossAx val="2056877728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934539840"/>
+        <c:axId val="2056878816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,6 +6515,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6246,12 +6573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934541472"/>
+        <c:crossAx val="2056879360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934541472"/>
+        <c:axId val="2056879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1934539840"/>
+        <c:crossAx val="2056878816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6275,6 +6602,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10128,10 +10456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD187"/>
+  <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7:AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10156,9 +10484,17 @@
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="0.85546875" customWidth="1"/>
+    <col min="40" max="40" width="1" customWidth="1"/>
+    <col min="41" max="41" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10166,32 +10502,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10219,23 +10555,49 @@
       <c r="W7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" s="28" t="s">
+      <c r="Z7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL7" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -10303,24 +10665,51 @@
       <c r="X8" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="24">
         <v>1</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="31">
         <v>289.26</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="32">
         <v>12479.16</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="31">
         <v>50</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="33">
         <f>Z8/330</f>
         <v>0.87654545454545452</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>289.26</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>12479.16</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>50</v>
+      </c>
+      <c r="AI8" s="47">
+        <f>AF8/330</f>
+        <v>0.87654545454545452</v>
+      </c>
+      <c r="AJ8" s="48">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="57">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -10388,24 +10777,51 @@
       <c r="X9" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="22">
         <v>2</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="34">
         <v>10</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="35">
         <v>61883.96</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="34">
         <v>123</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="36">
         <f>Z9/11</f>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>61883.96</v>
+      </c>
+      <c r="AH9" s="34">
+        <v>123</v>
+      </c>
+      <c r="AI9" s="39">
+        <f>AF9/11</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AJ9" s="41">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="57">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -10473,24 +10889,51 @@
       <c r="X10" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="22">
         <v>3</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="34">
         <v>108.56</v>
       </c>
-      <c r="AA10" s="30">
+      <c r="AA10" s="35">
         <v>45626.04</v>
       </c>
-      <c r="AB10" s="30">
+      <c r="AB10" s="35">
         <v>116</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="36">
         <f>Z10/165</f>
         <v>0.65793939393939394</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>108.56</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>45626.04</v>
+      </c>
+      <c r="AH10" s="35">
+        <v>116</v>
+      </c>
+      <c r="AI10" s="39">
+        <f>AF10/165</f>
+        <v>0.65793939393939394</v>
+      </c>
+      <c r="AJ10" s="41">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="57">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>35</v>
       </c>
@@ -10558,24 +11001,51 @@
       <c r="X11" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="22">
         <v>4</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="34">
         <v>248.6</v>
       </c>
-      <c r="AA11" s="30">
+      <c r="AA11" s="35">
         <v>85670.68</v>
       </c>
-      <c r="AB11" s="30">
+      <c r="AB11" s="35">
         <v>29.72</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="36">
         <f>Z11/264</f>
         <v>0.94166666666666665</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>248.6</v>
+      </c>
+      <c r="AG11" s="35">
+        <v>85670.68</v>
+      </c>
+      <c r="AH11" s="35">
+        <v>29.72</v>
+      </c>
+      <c r="AI11" s="39">
+        <f>AF11/264</f>
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="57">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>50</v>
       </c>
@@ -10643,24 +11113,51 @@
       <c r="X12" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="22">
         <v>5</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="34">
         <v>130.68</v>
       </c>
-      <c r="AA12" s="30">
+      <c r="AA12" s="35">
         <v>81555.08</v>
       </c>
-      <c r="AB12" s="30">
+      <c r="AB12" s="35">
         <v>121.44</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="36">
         <f>Z12/146</f>
         <v>0.89506849315068493</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="34">
+        <v>130.68</v>
+      </c>
+      <c r="AG12" s="35">
+        <v>81555.08</v>
+      </c>
+      <c r="AH12" s="35">
+        <v>121.44</v>
+      </c>
+      <c r="AI12" s="39">
+        <f>AF12/146</f>
+        <v>0.89506849315068493</v>
+      </c>
+      <c r="AJ12" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="57">
+        <v>6</v>
+      </c>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>70</v>
       </c>
@@ -10728,27 +11225,54 @@
       <c r="X13" t="s">
         <v>44</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="22">
         <v>6</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="34">
         <v>186.24</v>
       </c>
-      <c r="AA13" s="30">
+      <c r="AA13" s="35">
         <v>33130.76</v>
       </c>
-      <c r="AB13" s="30">
+      <c r="AB13" s="35">
         <v>165.52</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="36">
         <f>Z13/195</f>
         <v>0.95507692307692316</v>
       </c>
       <c r="AD13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE13" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" s="34">
+        <v>186.24</v>
+      </c>
+      <c r="AG13" s="35">
+        <v>33130.76</v>
+      </c>
+      <c r="AH13" s="35">
+        <v>165.52</v>
+      </c>
+      <c r="AI13" s="39">
+        <f>AF13/195</f>
+        <v>0.95507692307692316</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="57">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>85</v>
       </c>
@@ -10816,27 +11340,54 @@
       <c r="X14" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="22">
         <v>7</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="34">
         <v>187.6</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="34">
         <v>39986.68</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="34">
         <v>163.80000000000001</v>
       </c>
-      <c r="AC14" s="29">
+      <c r="AC14" s="36">
         <f>Z14/198</f>
         <v>0.94747474747474747</v>
       </c>
       <c r="AD14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF14" s="34">
+        <v>187.6</v>
+      </c>
+      <c r="AG14" s="34">
+        <v>39986.68</v>
+      </c>
+      <c r="AH14" s="34">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="AI14" s="39">
+        <f>AF14/198</f>
+        <v>0.94747474747474747</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="57">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>100</v>
       </c>
@@ -10879,78 +11430,159 @@
       <c r="X15" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="22">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="34">
         <v>140.04</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="34">
         <v>37154.92</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="34">
         <v>220.4</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC15" s="36">
         <f>Z15/148</f>
         <v>0.94621621621621621</v>
       </c>
       <c r="AD15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" s="34">
+        <v>140.04</v>
+      </c>
+      <c r="AG15" s="34">
+        <v>37154.92</v>
+      </c>
+      <c r="AH15" s="34">
+        <v>220.4</v>
+      </c>
+      <c r="AI15" s="39">
+        <f>AF15/148</f>
+        <v>0.94621621621621621</v>
+      </c>
+      <c r="AJ15" s="41">
+        <v>8</v>
+      </c>
+      <c r="AL15" s="57">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="X16" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="15">
         <v>9</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="34">
         <v>213.36</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="34">
         <v>51289.88</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="34">
         <v>80.2</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="36">
         <f>Z16/247</f>
         <v>0.86380566801619441</v>
       </c>
       <c r="AD16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>213.36</v>
+      </c>
+      <c r="AG16" s="34">
+        <v>51289.88</v>
+      </c>
+      <c r="AH16" s="34">
+        <v>80.2</v>
+      </c>
+      <c r="AI16" s="39">
+        <f>AF16/247</f>
+        <v>0.86380566801619441</v>
+      </c>
+      <c r="AJ16" s="42">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="57">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X17" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="22">
         <v>10</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="16">
         <v>201.36</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="16">
         <v>72838.039999999994</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="34">
         <v>66.56</v>
       </c>
-      <c r="AC17" s="29">
+      <c r="AC17" s="36">
         <f>Z17/247</f>
         <v>0.81522267206477739</v>
       </c>
       <c r="AD17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE17" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>201.36</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>72838.039999999994</v>
+      </c>
+      <c r="AH17" s="34">
+        <v>66.56</v>
+      </c>
+      <c r="AI17" s="39">
+        <f>AF17/247</f>
+        <v>0.81522267206477739</v>
+      </c>
+      <c r="AJ17" s="41">
+        <v>10</v>
+      </c>
+      <c r="AL17" s="59">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -10978,30 +11610,53 @@
       <c r="W18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="32" t="s">
+      <c r="X18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="23">
         <v>11</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="37">
         <v>204.12</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="37">
         <v>73388.08</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="37">
         <v>74.239999999999995</v>
       </c>
-      <c r="AC18" s="29">
+      <c r="AC18" s="38">
         <f>Z18/247</f>
         <v>0.82639676113360327</v>
       </c>
       <c r="AD18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" s="37">
+        <v>204.12</v>
+      </c>
+      <c r="AG18" s="37">
+        <v>73388.08</v>
+      </c>
+      <c r="AH18" s="37">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="AI18" s="44">
+        <f>AF18/247</f>
+        <v>0.82639676113360327</v>
+      </c>
+      <c r="AJ18" s="45">
+        <v>11</v>
+      </c>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -11035,9 +11690,9 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="29"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC19" s="28"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -11070,9 +11725,9 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
-      <c r="AC20" s="31"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC20" s="29"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -11108,9 +11763,9 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-      <c r="AC21" s="31"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC21" s="29"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -11179,9 +11834,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
-      <c r="AC22" s="31"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC22" s="29"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -11250,9 +11905,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
-      <c r="AC23" s="31"/>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="29"/>
+    </row>
+    <row r="24" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -11321,9 +11976,9 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
-      <c r="AC24" s="31"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC24" s="29"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -11363,9 +12018,9 @@
       <c r="M25" s="4">
         <v>20.6</v>
       </c>
-      <c r="AC25" s="31"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC25" s="29"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -11406,7 +12061,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -11447,7 +12102,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -11488,17 +12143,17 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>

--- a/Report, presentation and related stuff/Experiment Data 2.xlsx
+++ b/Report, presentation and related stuff/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Report, presentation and related stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Report, presentation and related stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="121">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -244,6 +244,150 @@
   <si>
     <t>A (83), B (55), C (50), 2.x2.05 (83), 3x1x1 (55), 2.5x1x1.5 (44)</t>
   </si>
+  <si>
+    <t>Neighbourhood size</t>
+  </si>
+  <si>
+    <t>Best runtime (ms)</t>
+  </si>
+  <si>
+    <t>Average runtime (ms)</t>
+  </si>
+  <si>
+    <t>Worst runtime (ms)</t>
+  </si>
+  <si>
+    <t>216.52</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>125.51</t>
+  </si>
+  <si>
+    <t>31.87</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>13.63</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>113.14</t>
+  </si>
+  <si>
+    <t>31.58</t>
+  </si>
+  <si>
+    <t>12.74</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>220.56</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>25.04</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>31.73</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>14.97</t>
+  </si>
+  <si>
+    <t>221.75</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>55.01</t>
+  </si>
+  <si>
+    <t>261.0</t>
+  </si>
+  <si>
+    <t>99.67</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>15.79</t>
+  </si>
+  <si>
+    <t>221.84</t>
+  </si>
+  <si>
+    <t>84.81</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>97.56</t>
+  </si>
+  <si>
+    <t>31.32</t>
+  </si>
+  <si>
+    <t>12.82</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>223.04</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>130.81</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>93.58</t>
+  </si>
+  <si>
+    <t>31.46</t>
+  </si>
+  <si>
+    <t>11.79</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +418,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -642,11 +800,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,6 +1042,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -883,7 +1154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -909,7 +1179,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1111,8 +1381,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061721616"/>
-        <c:axId val="2061728688"/>
+        <c:axId val="312385352"/>
+        <c:axId val="354000688"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1217,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061718896"/>
-        <c:axId val="2061729232"/>
+        <c:axId val="354001472"/>
+        <c:axId val="354001080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2061721616"/>
+        <c:axId val="312385352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1293,7 +1562,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1331,15 +1600,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061728688"/>
+        <c:crossAx val="354000688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061728688"/>
+        <c:axId val="354000688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1654,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1411,7 +1679,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1449,15 +1717,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061721616"/>
+        <c:crossAx val="312385352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061729232"/>
+        <c:axId val="354001080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1515,7 +1782,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1552,15 +1819,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061718896"/>
+        <c:crossAx val="354001472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061718896"/>
+        <c:axId val="354001472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061729232"/>
+        <c:crossAx val="354001080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +1851,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1610,7 +1876,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1643,7 +1909,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1694,7 +1960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,7 +1985,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1910,8 +2175,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061725424"/>
-        <c:axId val="2061730320"/>
+        <c:axId val="354002256"/>
+        <c:axId val="354002648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2096,11 +2361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061728144"/>
-        <c:axId val="2061725968"/>
+        <c:axId val="354003432"/>
+        <c:axId val="354003040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2061725424"/>
+        <c:axId val="354002256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2411,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2172,7 +2436,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2210,15 +2474,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061730320"/>
+        <c:crossAx val="354002648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061730320"/>
+        <c:axId val="354002648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2529,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2288,7 +2551,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2320,15 +2583,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061725424"/>
+        <c:crossAx val="354002256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061725968"/>
+        <c:axId val="354003040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2627,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2390,7 +2652,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2422,15 +2684,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061728144"/>
+        <c:crossAx val="354003432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061728144"/>
+        <c:axId val="354003432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061725968"/>
+        <c:crossAx val="354003040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2454,7 +2716,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2480,7 +2741,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2513,7 +2774,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2595,7 +2856,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2871,8 +3132,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061726512"/>
-        <c:axId val="2061727056"/>
+        <c:axId val="354004216"/>
+        <c:axId val="357531232"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3143,11 +3404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061729776"/>
-        <c:axId val="2061727600"/>
+        <c:axId val="357532016"/>
+        <c:axId val="357531624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2061726512"/>
+        <c:axId val="354004216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3480,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3257,15 +3518,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061727056"/>
+        <c:crossAx val="357531232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061727056"/>
+        <c:axId val="357531232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3596,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3367,15 +3628,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061726512"/>
+        <c:crossAx val="354004216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061727600"/>
+        <c:axId val="357531624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,7 +3711,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3482,15 +3743,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2061729776"/>
+        <c:crossAx val="357532016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2061729776"/>
+        <c:axId val="357532016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,7 +3761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061727600"/>
+        <c:crossAx val="357531624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3540,7 +3801,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3573,7 +3834,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3650,7 +3911,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3926,8 +4187,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056887520"/>
-        <c:axId val="2056890784"/>
+        <c:axId val="357532800"/>
+        <c:axId val="357533192"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4198,11 +4459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056881536"/>
-        <c:axId val="2056880992"/>
+        <c:axId val="357533976"/>
+        <c:axId val="357533584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056887520"/>
+        <c:axId val="357532800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4540,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4317,15 +4578,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056890784"/>
+        <c:crossAx val="357533192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056890784"/>
+        <c:axId val="357533192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,7 +4656,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,15 +4688,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056887520"/>
+        <c:crossAx val="357532800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056880992"/>
+        <c:axId val="357533584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4497,7 +4758,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4529,15 +4790,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056881536"/>
+        <c:crossAx val="357533976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056881536"/>
+        <c:axId val="357533976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056880992"/>
+        <c:crossAx val="357533584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4587,7 +4848,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4620,7 +4881,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4676,7 +4937,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4702,7 +4962,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4960,8 +5220,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056886976"/>
-        <c:axId val="2056891328"/>
+        <c:axId val="357534760"/>
+        <c:axId val="244845744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5214,11 +5474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056884800"/>
-        <c:axId val="2056877184"/>
+        <c:axId val="244846528"/>
+        <c:axId val="244846136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056886976"/>
+        <c:axId val="357534760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5269,7 +5529,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5295,7 +5554,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5333,15 +5592,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056891328"/>
+        <c:crossAx val="244845744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056891328"/>
+        <c:axId val="244845744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5411,7 +5669,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5443,15 +5701,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056886976"/>
+        <c:crossAx val="357534760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056877184"/>
+        <c:axId val="244846136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5485,15 +5743,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056884800"/>
+        <c:crossAx val="244846528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056884800"/>
+        <c:axId val="244846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056877184"/>
+        <c:crossAx val="244846136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5517,7 +5775,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5543,7 +5800,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5576,7 +5833,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5653,7 +5910,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5947,8 +6204,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056877728"/>
-        <c:axId val="2056888064"/>
+        <c:axId val="244847312"/>
+        <c:axId val="244847704"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6237,11 +6494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056879360"/>
-        <c:axId val="2056878816"/>
+        <c:axId val="244848488"/>
+        <c:axId val="244848096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056877728"/>
+        <c:axId val="244847312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,7 +6570,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6351,15 +6608,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056888064"/>
+        <c:crossAx val="244847704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056888064"/>
+        <c:axId val="244847704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6429,7 +6686,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6461,15 +6718,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056877728"/>
+        <c:crossAx val="244847312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056878816"/>
+        <c:axId val="244848096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6795,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6570,15 +6827,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056879360"/>
+        <c:crossAx val="244848488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056879360"/>
+        <c:axId val="244848488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,7 +6845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056878816"/>
+        <c:crossAx val="244848096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6628,7 +6885,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6661,7 +6918,290 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AA$45:$AA$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$R$29:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>216.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312386136"/>
+        <c:axId val="367029344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312386136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367029344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367029344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312386136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6912,6 +7452,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9493,6 +10073,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10185,6 +11281,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10458,8 +11584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7:AO17"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12102,7 +13228,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -12141,34 +13267,310 @@
       </c>
       <c r="M28" s="4">
         <v>19.239999999999998</v>
+      </c>
+      <c r="P28" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="U28" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y28" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE28" s="77"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="P29" s="65">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="65">
+        <v>233</v>
+      </c>
+      <c r="R29">
+        <v>216.52</v>
+      </c>
+      <c r="S29" s="65">
+        <v>189</v>
+      </c>
+      <c r="T29" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="U29" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="V29" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="65">
+        <v>30</v>
+      </c>
+      <c r="X29" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y29" s="65">
+        <v>273</v>
+      </c>
+      <c r="Z29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29" s="67" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="P30" s="68">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>233</v>
+      </c>
+      <c r="R30">
+        <v>219</v>
+      </c>
+      <c r="S30" s="68">
+        <v>200</v>
+      </c>
+      <c r="T30" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="V30" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="W30" s="68">
+        <v>43</v>
+      </c>
+      <c r="X30" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" s="68">
+        <v>210</v>
+      </c>
+      <c r="Z30" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA30" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB30" s="70" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
+      <c r="P31" s="68">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>233</v>
+      </c>
+      <c r="R31">
+        <v>220.56</v>
+      </c>
+      <c r="S31" s="68">
+        <v>207</v>
+      </c>
+      <c r="T31" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="V31" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="W31" s="68">
+        <v>40</v>
+      </c>
+      <c r="X31" s="68">
+        <v>105</v>
+      </c>
+      <c r="Y31" s="68">
+        <v>177</v>
+      </c>
+      <c r="Z31" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA31" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB31" s="70" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P32" s="71">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="71">
+        <v>233</v>
+      </c>
+      <c r="R32">
+        <v>221.75</v>
+      </c>
+      <c r="S32" s="71">
+        <v>205</v>
+      </c>
+      <c r="T32" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="U32" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="W32" s="71">
+        <v>40</v>
+      </c>
+      <c r="X32" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y32" s="71">
+        <v>190</v>
+      </c>
+      <c r="Z32" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA32" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB32" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P33" s="71">
+        <v>250</v>
+      </c>
+      <c r="Q33" s="71">
+        <v>233</v>
+      </c>
+      <c r="R33">
+        <v>221.84</v>
+      </c>
+      <c r="S33" s="71">
+        <v>207</v>
+      </c>
+      <c r="T33" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="U33" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="V33" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33" s="71">
+        <v>40</v>
+      </c>
+      <c r="X33" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y33" s="71">
+        <v>179</v>
+      </c>
+      <c r="Z33" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA33" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB33" s="73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P34" s="74">
+        <v>500</v>
+      </c>
+      <c r="Q34" s="74">
+        <v>234</v>
+      </c>
+      <c r="R34">
+        <v>223.04</v>
+      </c>
+      <c r="S34" s="74">
+        <v>210</v>
+      </c>
+      <c r="T34" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="U34" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="V34" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="W34" s="74">
+        <v>22</v>
+      </c>
+      <c r="X34" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y34" s="74">
+        <v>172</v>
+      </c>
+      <c r="Z34" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA34" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB34" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -12209,7 +13611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -12250,7 +13652,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -12290,8 +13692,14 @@
       <c r="M37" s="4">
         <v>19.559999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R37" s="66">
+        <v>10</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -12331,8 +13739,14 @@
       <c r="M38" s="6">
         <v>21.08</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R38" s="69">
+        <v>50</v>
+      </c>
+      <c r="S38" s="69">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>3</v>
       </c>
@@ -12372,8 +13786,14 @@
       <c r="M39" s="4">
         <v>21.44</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R39" s="69">
+        <v>100</v>
+      </c>
+      <c r="S39" s="69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -12413,8 +13833,14 @@
       <c r="M40" s="4">
         <v>21.84</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R40" s="72">
+        <v>200</v>
+      </c>
+      <c r="S40" s="72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -12454,8 +13880,14 @@
       <c r="M41" s="4">
         <v>21.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R41" s="72">
+        <v>250</v>
+      </c>
+      <c r="S41" s="72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12463,33 +13895,57 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R42" s="75">
+        <v>500</v>
+      </c>
+      <c r="S42" s="75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -12529,8 +13985,14 @@
       <c r="M48" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>200</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>0.01</v>
       </c>
@@ -12570,8 +14032,14 @@
       <c r="M49" s="4">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>250</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0.03</v>
       </c>
@@ -12611,8 +14079,14 @@
       <c r="M50" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>500</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>0.05</v>
       </c>
@@ -12653,7 +14127,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12694,7 +14168,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0.1</v>
       </c>
@@ -12735,7 +14209,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.15</v>
       </c>
@@ -12776,32 +14250,32 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>22</v>
       </c>
@@ -12842,7 +14316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -12883,7 +14357,7 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0.01</v>
       </c>
@@ -12924,7 +14398,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0.02</v>
       </c>
